--- a/datos_exportados_STOCK.xlsx
+++ b/datos_exportados_STOCK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>ID_Videojuego</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Blizzard</t>
   </si>
   <si>
-    <t/>
+    <t>IMAGEN NO DISPONIBLE</t>
   </si>
   <si>
     <t>Ghost &amp; Goblins</t>
@@ -101,6 +101,15 @@
     <t>Punch Out 2</t>
   </si>
   <si>
+    <t>Megaman 2</t>
+  </si>
+  <si>
+    <t>NES</t>
+  </si>
+  <si>
+    <t>javax.swing.ImageIcon@115b973f</t>
+  </si>
+  <si>
     <t>Metal Slug 3</t>
   </si>
   <si>
@@ -110,9 +119,6 @@
     <t>Pac-Man</t>
   </si>
   <si>
-    <t>NES</t>
-  </si>
-  <si>
     <t>ZELDA A LINK TO THE PAST</t>
   </si>
   <si>
@@ -134,7 +140,7 @@
     <t>Zelda Ocarina</t>
   </si>
   <si>
-    <t>[B@3c15b134</t>
+    <t>javax.swing.ImageIcon@6a6e279b</t>
   </si>
   <si>
     <t>Super Mario Bros 3. Ed Limitada</t>
@@ -143,13 +149,19 @@
     <t>Mario Bros</t>
   </si>
   <si>
-    <t>[B@5b3f0785</t>
+    <t>javax.swing.ImageIcon@17ace130</t>
+  </si>
+  <si>
+    <t>Nes</t>
+  </si>
+  <si>
+    <t>javax.swing.ImageIcon@3b203b2a</t>
   </si>
   <si>
     <t>Megaman</t>
   </si>
   <si>
-    <t>[B@1ca04f60</t>
+    <t>javax.swing.ImageIcon@5463bdca</t>
   </si>
 </sst>
 </file>
@@ -194,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -482,7 +494,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10101.0</v>
+        <v>9986.0</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -491,30 +503,30 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>99999.0</v>
+        <v>160.0</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24024.0</v>
+        <v>10101.0</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>50.0</v>
+        <v>99999.0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -522,19 +534,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>45484.0</v>
+        <v>24024.0</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>150.0</v>
+        <v>50.0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -542,19 +554,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>88965.0</v>
+        <v>45484.0</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>97.0</v>
+        <v>150.0</v>
       </c>
       <c r="E18" t="n">
-        <v>44.0</v>
+        <v>5.0</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -562,19 +574,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90909.0</v>
+        <v>88965.0</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>157.0</v>
+        <v>97.0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.0</v>
+        <v>44.0</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -582,19 +594,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>99984.0</v>
+        <v>90909.0</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>89.0</v>
+        <v>157.0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -602,19 +614,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>121212.0</v>
+        <v>99984.0</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>8888.0</v>
+        <v>89.0</v>
       </c>
       <c r="E21" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -622,82 +634,142 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>987897.0</v>
+        <v>121212.0</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>88.0</v>
+        <v>8888.0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9875555.0</v>
+        <v>987897.0</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>1600.0</v>
+        <v>88.0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.8592378E7</v>
+        <v>9875555.0</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>45.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E24" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.97686286E8</v>
+        <v>4.8592378E7</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>150.0</v>
+        <v>45.0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F25" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.79827496E8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.79827498E8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7.97686286E8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
